--- a/Assets/ExcelTest.xlsx
+++ b/Assets/ExcelTest.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity project\UnityTools\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B69991-1BBA-4860-8DF5-40A01FD03274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6389F345-4508-4A12-84B5-1E75428DAC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{0007009F-AAC5-4201-9826-6032E80816C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{0007009F-AAC5-4201-9826-6032E80816C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,19 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,31 +47,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aaaaaaaaaaaaaaa</t>
+    <t>小明</t>
+  </si>
+  <si>
+    <t>小紅</t>
+  </si>
+  <si>
+    <t>嗨，小紅！你今天過得怎麼樣？</t>
+  </si>
+  <si>
+    <t>嗨，小明！我過得不錯，謝謝。你呢？</t>
+  </si>
+  <si>
+    <t>我也很好，謝謝關心。你完成會議的報告了嗎？</t>
+  </si>
+  <si>
+    <t>是的，我今天早上剛完成。你要一起檢查嗎？</t>
+  </si>
+  <si>
+    <t>這主意不錯。我們下午兩點在會議室見面吧。</t>
+  </si>
+  <si>
+    <t>太好了！那麼下午見。</t>
+  </si>
+  <si>
+    <t>阿華</t>
+  </si>
+  <si>
+    <t>小美</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bbbbbbbbbbbbbb</t>
+    <t xml:space="preserve"> 嗨，小美！最近好嗎？</t>
+  </si>
+  <si>
+    <t>嗨，阿華！最近還不錯。你呢？</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 我也挺好的。你有沒有看那部新上映的電影？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddddddddddddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccccccccccccccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
+    <t>還沒有呢，我聽說很棒。你看了嗎？</t>
+  </si>
+  <si>
+    <t>當然好啊！我們這個週末去吧。</t>
+  </si>
+  <si>
+    <t>是啊，我昨天去看了，真的很好看。要不要一起去再看一遍？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,6 +115,15 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -129,8 +150,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE65D922-1D5E-4080-B83E-6CB7E6D8968C}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -480,26 +504,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -507,25 +531,112 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D866892A-64B3-4DA8-90FF-C2AEE6EFAAB1}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="85" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
